--- a/tableau_test_sports.xlsx
+++ b/tableau_test_sports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geoffrey/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geoffrey/Documents/GitHub/maneater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5745DDA1-55A0-2D49-947D-5DBC2777AD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6BD9A6-D3A2-6445-B2DF-16EE0F9C82D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{AE436C50-2C77-B842-BFB4-D0D420A3693C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Opponent</t>
   </si>
@@ -69,69 +69,21 @@
     <t>Mississippi State</t>
   </si>
   <si>
-    <t>completion_pct</t>
-  </si>
-  <si>
     <t>pass_yds</t>
   </si>
   <si>
-    <t>pass_td</t>
-  </si>
-  <si>
-    <t>rush_att</t>
-  </si>
-  <si>
-    <t>pass_attemps</t>
-  </si>
-  <si>
-    <t>pass_completions</t>
-  </si>
-  <si>
     <t>rush_yds</t>
   </si>
   <si>
-    <t>yds_per_rush</t>
-  </si>
-  <si>
-    <t>rush_td</t>
-  </si>
-  <si>
-    <t>total_plays</t>
-  </si>
-  <si>
     <t>yds_per_play</t>
   </si>
   <si>
     <t>total_yds</t>
   </si>
   <si>
-    <t>first_down_pass</t>
-  </si>
-  <si>
-    <t>first_down_rush</t>
-  </si>
-  <si>
-    <t>first_down_penalty</t>
-  </si>
-  <si>
-    <t>first_down_total</t>
-  </si>
-  <si>
-    <t>total_penalties</t>
-  </si>
-  <si>
     <t>penalty_yards</t>
   </si>
   <si>
-    <t>fumbles</t>
-  </si>
-  <si>
-    <t>interceptions</t>
-  </si>
-  <si>
-    <t>total_turnovers</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -157,6 +109,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>turnovers</t>
   </si>
 </sst>
 </file>
@@ -509,109 +464,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FA9655-F30B-3E43-BCA7-EE295F646478}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44100</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>19</v>
@@ -620,81 +530,36 @@
         <v>38</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="H2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I2">
-        <v>66.7</v>
+        <v>322</v>
       </c>
       <c r="J2">
-        <v>253</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>34</v>
-      </c>
-      <c r="M2">
-        <v>69</v>
-      </c>
-      <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>73</v>
-      </c>
-      <c r="Q2">
-        <v>322</v>
-      </c>
-      <c r="R2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S2">
-        <v>11</v>
-      </c>
-      <c r="T2">
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>20</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>20</v>
-      </c>
-      <c r="Y2">
-        <v>2</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44107</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -703,81 +568,36 @@
         <v>35</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>344</v>
       </c>
       <c r="J3">
-        <v>218</v>
+        <v>5.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L3">
-        <v>37</v>
-      </c>
-      <c r="M3">
-        <v>126</v>
-      </c>
-      <c r="N3">
-        <v>3.4</v>
-      </c>
-      <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>62</v>
-      </c>
-      <c r="Q3">
-        <v>344</v>
-      </c>
-      <c r="R3">
-        <v>5.5</v>
-      </c>
-      <c r="S3">
-        <v>9</v>
-      </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>15</v>
-      </c>
-      <c r="W3">
-        <v>6</v>
-      </c>
-      <c r="X3">
-        <v>49</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44114</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>45</v>
@@ -786,81 +606,36 @@
         <v>41</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>406</v>
       </c>
       <c r="H4">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="I4">
-        <v>82.9</v>
+        <v>586</v>
       </c>
       <c r="J4">
-        <v>406</v>
+        <v>8.6</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="L4">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>180</v>
-      </c>
-      <c r="N4">
-        <v>5.5</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>68</v>
-      </c>
-      <c r="Q4">
-        <v>586</v>
-      </c>
-      <c r="R4">
-        <v>8.6</v>
-      </c>
-      <c r="S4">
-        <v>16</v>
-      </c>
-      <c r="T4">
-        <v>9</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>25</v>
-      </c>
-      <c r="W4">
-        <v>6</v>
-      </c>
-      <c r="X4">
-        <v>55</v>
-      </c>
-      <c r="Y4">
         <v>3</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44128</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -869,81 +644,36 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="I5">
-        <v>70</v>
+        <v>421</v>
       </c>
       <c r="J5">
-        <v>201</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K5">
+        <v>54</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>62</v>
-      </c>
-      <c r="M5">
-        <v>220</v>
-      </c>
-      <c r="N5">
-        <v>3.5</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>92</v>
-      </c>
-      <c r="Q5">
-        <v>421</v>
-      </c>
-      <c r="R5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="S5">
-        <v>12</v>
-      </c>
-      <c r="T5">
-        <v>13</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>26</v>
-      </c>
-      <c r="W5">
-        <v>6</v>
-      </c>
-      <c r="X5">
-        <v>54</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44135</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>17</v>
@@ -952,81 +682,36 @@
         <v>41</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="H6">
         <v>40</v>
       </c>
       <c r="I6">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="J6">
-        <v>208</v>
+        <v>3.9</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L6">
-        <v>23</v>
-      </c>
-      <c r="M6">
-        <v>40</v>
-      </c>
-      <c r="N6">
-        <v>1.7</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>63</v>
-      </c>
-      <c r="Q6">
-        <v>248</v>
-      </c>
-      <c r="R6">
-        <v>3.9</v>
-      </c>
-      <c r="S6">
-        <v>11</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
         <v>2</v>
       </c>
-      <c r="V6">
-        <v>16</v>
-      </c>
-      <c r="W6">
-        <v>9</v>
-      </c>
-      <c r="X6">
-        <v>62</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44156</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>17</v>
@@ -1035,81 +720,36 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I7">
-        <v>63.6</v>
+        <v>301</v>
       </c>
       <c r="J7">
-        <v>203</v>
+        <v>4.5</v>
       </c>
       <c r="K7">
+        <v>77</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>34</v>
-      </c>
-      <c r="M7">
-        <v>98</v>
-      </c>
-      <c r="N7">
-        <v>2.9</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>67</v>
-      </c>
-      <c r="Q7">
-        <v>301</v>
-      </c>
-      <c r="R7">
-        <v>4.5</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>19</v>
-      </c>
-      <c r="W7">
-        <v>7</v>
-      </c>
-      <c r="X7">
-        <v>77</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44163</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>41</v>
@@ -1118,81 +758,36 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="H8">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="I8">
-        <v>82.9</v>
+        <v>603</v>
       </c>
       <c r="J8">
-        <v>380</v>
+        <v>7.6</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>38</v>
-      </c>
-      <c r="M8">
-        <v>223</v>
-      </c>
-      <c r="N8">
-        <v>5.9</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>79</v>
-      </c>
-      <c r="Q8">
-        <v>603</v>
-      </c>
-      <c r="R8">
-        <v>7.6</v>
-      </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-      <c r="T8">
-        <v>11</v>
-      </c>
-      <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>31</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>5</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44170</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1201,81 +796,36 @@
         <v>48</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="I9">
-        <v>65.3</v>
+        <v>653</v>
       </c>
       <c r="J9">
-        <v>380</v>
+        <v>7.5</v>
       </c>
       <c r="K9">
+        <v>57</v>
+      </c>
+      <c r="L9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>38</v>
-      </c>
-      <c r="M9">
-        <v>273</v>
-      </c>
-      <c r="N9">
-        <v>7.2</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>87</v>
-      </c>
-      <c r="Q9">
-        <v>653</v>
-      </c>
-      <c r="R9">
-        <v>7.5</v>
-      </c>
-      <c r="S9">
-        <v>20</v>
-      </c>
-      <c r="T9">
-        <v>12</v>
-      </c>
-      <c r="U9">
-        <v>5</v>
-      </c>
-      <c r="V9">
-        <v>37</v>
-      </c>
-      <c r="W9">
-        <v>8</v>
-      </c>
-      <c r="X9">
-        <v>57</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44177</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>14</v>
@@ -1284,81 +834,36 @@
         <v>49</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I10">
-        <v>62.5</v>
+        <v>200</v>
       </c>
       <c r="J10">
-        <v>178</v>
+        <v>3.7</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L10">
-        <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>54</v>
-      </c>
-      <c r="Q10">
-        <v>200</v>
-      </c>
-      <c r="R10">
-        <v>3.7</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>11</v>
-      </c>
-      <c r="W10">
-        <v>4</v>
-      </c>
-      <c r="X10">
-        <v>30</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44184</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>32</v>
@@ -1367,66 +872,21 @@
         <v>51</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I11">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="J11">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>101</v>
-      </c>
-      <c r="N11">
-        <v>3.4</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>69</v>
-      </c>
-      <c r="Q11">
-        <v>342</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>14</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>5</v>
-      </c>
-      <c r="V11">
-        <v>23</v>
-      </c>
-      <c r="W11">
-        <v>8</v>
-      </c>
-      <c r="X11">
-        <v>89</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>3</v>
-      </c>
-      <c r="AA11">
         <v>4</v>
       </c>
     </row>
